--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H2">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I2">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J2">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.4838729859323</v>
+        <v>25.01567066666667</v>
       </c>
       <c r="N2">
-        <v>23.4838729859323</v>
+        <v>75.047012</v>
       </c>
       <c r="O2">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="P2">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="Q2">
-        <v>492.7251880555098</v>
+        <v>625.6021734726442</v>
       </c>
       <c r="R2">
-        <v>492.7251880555098</v>
+        <v>5630.419561253797</v>
       </c>
       <c r="S2">
-        <v>0.1296140919660192</v>
+        <v>0.1467647518483345</v>
       </c>
       <c r="T2">
-        <v>0.1296140919660192</v>
+        <v>0.1467647518483345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H3">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I3">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J3">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.9722167161494</v>
+        <v>25.99788533333333</v>
       </c>
       <c r="N3">
-        <v>25.9722167161494</v>
+        <v>77.993656</v>
       </c>
       <c r="O3">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="P3">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="Q3">
-        <v>544.9341926414411</v>
+        <v>650.1658015468721</v>
       </c>
       <c r="R3">
-        <v>544.9341926414411</v>
+        <v>5851.492213921849</v>
       </c>
       <c r="S3">
-        <v>0.1433479600245217</v>
+        <v>0.1525273193899361</v>
       </c>
       <c r="T3">
-        <v>0.1433479600245217</v>
+        <v>0.1525273193899361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H4">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I4">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J4">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.2928383165359</v>
+        <v>19.83851733333333</v>
       </c>
       <c r="N4">
-        <v>19.2928383165359</v>
+        <v>59.515552</v>
       </c>
       <c r="O4">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="P4">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="Q4">
-        <v>404.7912962795437</v>
+        <v>496.1297951026241</v>
       </c>
       <c r="R4">
-        <v>404.7912962795437</v>
+        <v>4465.168155923617</v>
       </c>
       <c r="S4">
-        <v>0.1064825943038862</v>
+        <v>0.1163908460525603</v>
       </c>
       <c r="T4">
-        <v>0.1064825943038862</v>
+        <v>0.1163908460525604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H5">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J5">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.4838729859323</v>
+        <v>25.01567066666667</v>
       </c>
       <c r="N5">
-        <v>23.4838729859323</v>
+        <v>75.047012</v>
       </c>
       <c r="O5">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="P5">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="Q5">
-        <v>478.2635844144585</v>
+        <v>512.7216612817426</v>
       </c>
       <c r="R5">
-        <v>478.2635844144585</v>
+        <v>4614.494951535684</v>
       </c>
       <c r="S5">
-        <v>0.1258098869654496</v>
+        <v>0.1202832575973639</v>
       </c>
       <c r="T5">
-        <v>0.1258098869654496</v>
+        <v>0.1202832575973639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H6">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J6">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.9722167161494</v>
+        <v>25.99788533333333</v>
       </c>
       <c r="N6">
-        <v>25.9722167161494</v>
+        <v>77.993656</v>
       </c>
       <c r="O6">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="P6">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="Q6">
-        <v>528.9402420672135</v>
+        <v>532.8531517518213</v>
       </c>
       <c r="R6">
-        <v>528.9402420672135</v>
+        <v>4795.678365766392</v>
       </c>
       <c r="S6">
-        <v>0.1391406626691562</v>
+        <v>0.1250060564117887</v>
       </c>
       <c r="T6">
-        <v>0.1391406626691562</v>
+        <v>0.1250060564117887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H7">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J7">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.2928383165359</v>
+        <v>19.83851733333333</v>
       </c>
       <c r="N7">
-        <v>19.2928383165359</v>
+        <v>59.515552</v>
       </c>
       <c r="O7">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="P7">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="Q7">
-        <v>392.9105736656987</v>
+        <v>406.6106281958293</v>
       </c>
       <c r="R7">
-        <v>392.9105736656987</v>
+        <v>3659.495653762464</v>
       </c>
       <c r="S7">
-        <v>0.1033573043637255</v>
+        <v>0.09538986671801544</v>
       </c>
       <c r="T7">
-        <v>0.1033573043637255</v>
+        <v>0.09538986671801546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H8">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.4838729859323</v>
+        <v>25.01567066666667</v>
       </c>
       <c r="N8">
-        <v>23.4838729859323</v>
+        <v>75.047012</v>
       </c>
       <c r="O8">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="P8">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="Q8">
-        <v>327.5542241630206</v>
+        <v>366.6746808207529</v>
       </c>
       <c r="R8">
-        <v>327.5542241630206</v>
+        <v>3300.072127386776</v>
       </c>
       <c r="S8">
-        <v>0.08616495434721069</v>
+        <v>0.08602099036997389</v>
       </c>
       <c r="T8">
-        <v>0.08616495434721069</v>
+        <v>0.0860209903699739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H9">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.9722167161494</v>
+        <v>25.99788533333333</v>
       </c>
       <c r="N9">
-        <v>25.9722167161494</v>
+        <v>77.993656</v>
       </c>
       <c r="O9">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="P9">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="Q9">
-        <v>362.2617658232243</v>
+        <v>381.0717863070098</v>
       </c>
       <c r="R9">
-        <v>362.2617658232243</v>
+        <v>3429.646076763088</v>
       </c>
       <c r="S9">
-        <v>0.09529496556992352</v>
+        <v>0.08939851638190548</v>
       </c>
       <c r="T9">
-        <v>0.09529496556992352</v>
+        <v>0.08939851638190549</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H10">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.2928383165359</v>
+        <v>19.83851733333333</v>
       </c>
       <c r="N10">
-        <v>19.2928383165359</v>
+        <v>59.515552</v>
       </c>
       <c r="O10">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="P10">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="Q10">
-        <v>269.0974649054309</v>
+        <v>290.7890061428551</v>
       </c>
       <c r="R10">
-        <v>269.0974649054309</v>
+        <v>2617.101055285696</v>
       </c>
       <c r="S10">
-        <v>0.07078757979010751</v>
+        <v>0.06821839523012163</v>
       </c>
       <c r="T10">
-        <v>0.07078757979010751</v>
+        <v>0.06821839523012165</v>
       </c>
     </row>
   </sheetData>
